--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12809.41907490519</v>
+        <v>2549074.395906134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12809.41907490519</v>
+        <v>2549074.395906134</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28577.23775229574</v>
+        <v>1715795.715512945</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28577.23775229574</v>
+        <v>1715795.715512945</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>961426493.7873998</v>
+        <v>41083330.58824838</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10815.10832466367</v>
+        <v>1230769.590954585</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19040.96636505476</v>
+        <v>2017611.081563192</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27266.82440544584</v>
+        <v>2804452.572171801</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36115.03935518472</v>
+        <v>3517936.889639877</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45095.59422912143</v>
+        <v>4257756.85202333</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53548.2281716976</v>
+        <v>5070823.431063621</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61868.52219007591</v>
+        <v>5857554.365188535</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70188.81620845423</v>
+        <v>6644285.299313448</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79042.04640459784</v>
+        <v>7356684.732476659</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88024.57026646909</v>
+        <v>8096896.523459068</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97005.12514040584</v>
+        <v>8836716.48584252</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105985.6800143426</v>
+        <v>9576536.448225979</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114966.2348882793</v>
+        <v>10316356.41060944</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123946.7897622161</v>
+        <v>11056176.3729929</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132932.3598825576</v>
+        <v>11794911.45107149</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>132</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>84</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1230</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
